--- a/HopeMDM/2015年3月9日6710公司切换至6770/测试.xlsx
+++ b/HopeMDM/2015年3月9日6710公司切换至6770/测试.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>前台创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,38 @@
   </si>
   <si>
     <t>批量导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CST201503130879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CST201503130879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入批次号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test0211CREATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTEND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +423,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -412,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -482,22 +522,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,9 +579,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -939,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -951,54 +1045,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
@@ -1007,38 +1101,38 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -1047,38 +1141,38 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
@@ -1087,42 +1181,157 @@
       <c r="E17" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="31">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D26:E26" r:id="rId1" display="test0211CREATE"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1141,54 +1350,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
@@ -1197,38 +1406,38 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -1237,38 +1446,38 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
@@ -1278,6 +1487,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
@@ -1288,12 +1503,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B13:E14"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1317,54 +1526,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
@@ -1373,38 +1582,38 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -1413,38 +1622,38 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
@@ -1454,6 +1663,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
@@ -1464,12 +1679,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B13:E14"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1488,58 +1697,58 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -1550,41 +1759,41 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1594,38 +1803,38 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
@@ -1635,6 +1844,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
@@ -1645,12 +1860,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B13:E14"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1669,58 +1878,58 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -1731,41 +1940,41 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1775,38 +1984,38 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
@@ -1816,6 +2025,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
@@ -1826,12 +2041,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B13:E14"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HopeMDM/2015年3月9日6710公司切换至6770/测试.xlsx
+++ b/HopeMDM/2015年3月9日6710公司切换至6770/测试.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>前台创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CST201503110810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生成的客户编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +375,14 @@
   </si>
   <si>
     <t>EXTEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000540508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CST201503160896 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,14 +580,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,10 +601,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1035,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,20 +1049,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
@@ -1076,23 +1080,23 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
@@ -1102,7 +1106,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1116,23 +1120,23 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -1142,7 +1146,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1156,23 +1160,23 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
@@ -1181,24 +1185,24 @@
       <c r="E17" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1212,33 +1216,33 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
@@ -1248,7 +1252,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B28" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1262,31 +1266,31 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
@@ -1296,6 +1300,30 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B28:E29"/>
@@ -1303,30 +1331,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1350,20 +1354,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
@@ -1381,23 +1385,23 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
@@ -1407,7 +1411,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1421,23 +1425,23 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -1447,7 +1451,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1461,23 +1465,23 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
@@ -1487,12 +1491,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
@@ -1503,6 +1501,12 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B13:E14"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1526,20 +1530,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
@@ -1557,23 +1561,23 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
@@ -1583,7 +1587,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1597,23 +1601,23 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -1623,7 +1627,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1637,23 +1641,23 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
@@ -1663,12 +1667,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
@@ -1679,6 +1677,12 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B13:E14"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1697,20 +1701,20 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -1731,24 +1735,24 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -1760,7 +1764,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1776,24 +1780,24 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1804,7 +1808,7 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1818,23 +1822,23 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
@@ -1844,12 +1848,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
@@ -1860,6 +1858,12 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B13:E14"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,20 +1882,20 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -1912,24 +1916,24 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -1941,7 +1945,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1957,24 +1961,24 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1985,7 +1989,7 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1999,23 +2003,23 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
@@ -2025,12 +2029,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
@@ -2041,6 +2039,12 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B13:E14"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
